--- a/STA 663L-1.xlsx
+++ b/STA 663L-1.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Lori\Class Permission #s\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7530"/>
+    <workbookView xWindow="5040" yWindow="3180" windowWidth="24500" windowHeight="18160"/>
   </bookViews>
   <sheets>
     <sheet name="ps-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>Permission</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Jiseon Lee</t>
   </si>
   <si>
+    <t>Min Jung Park</t>
+  </si>
+  <si>
     <t>Lei Liu</t>
   </si>
   <si>
@@ -109,6 +112,24 @@
   </si>
   <si>
     <t>Dipesh Gautam</t>
+  </si>
+  <si>
+    <t>Princeton Lee</t>
+  </si>
+  <si>
+    <t>Xinyi Li</t>
+  </si>
+  <si>
+    <t>Jialiang Mao</t>
+  </si>
+  <si>
+    <t>Yue Mu</t>
+  </si>
+  <si>
+    <t>Yongjian Bi</t>
+  </si>
+  <si>
+    <t>Radhika Anand</t>
   </si>
 </sst>
 </file>
@@ -737,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,7 +793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -959,24 +980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>638352</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>362502</v>
       </c>
@@ -1077,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>810240</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>266077</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>502821</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>373458</v>
       </c>
@@ -1209,7 +1230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>325176</v>
       </c>
@@ -1242,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>667368</v>
       </c>
@@ -1251,11 +1272,17 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2221809</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41962</v>
+      </c>
       <c r="H9" s="4">
         <v>42025</v>
       </c>
@@ -1269,7 +1296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>177135</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>2222180</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
         <v>41950</v>
@@ -1302,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>370939</v>
       </c>
@@ -1317,7 +1344,7 @@
         <v>2206392</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4">
         <v>41951</v>
@@ -1335,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>724041</v>
       </c>
@@ -1350,7 +1377,7 @@
         <v>2159791</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4">
         <v>41951</v>
@@ -1368,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>366416</v>
       </c>
@@ -1376,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -1385,7 +1412,7 @@
         <v>2165326</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4">
         <v>41953</v>
@@ -1403,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>716491</v>
       </c>
@@ -1411,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -1420,7 +1447,7 @@
         <v>2009354</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4">
         <v>41953</v>
@@ -1438,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>956512</v>
       </c>
@@ -1446,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -1455,7 +1482,7 @@
         <v>2223424</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
         <v>41953</v>
@@ -1473,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>3418</v>
       </c>
@@ -1481,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1490,7 +1517,7 @@
         <v>2222915</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4">
         <v>41953</v>
@@ -1508,7 +1535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>260264</v>
       </c>
@@ -1523,7 +1550,7 @@
         <v>2098558</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="4">
         <v>41954</v>
@@ -1541,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>410942</v>
       </c>
@@ -1568,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>412455</v>
       </c>
@@ -1595,7 +1622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>200210</v>
       </c>
@@ -1604,11 +1631,17 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1888008</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4">
+        <v>41956</v>
+      </c>
       <c r="H20" s="4">
         <v>42025</v>
       </c>
@@ -1622,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>194840</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>271416</v>
       </c>
@@ -1658,11 +1691,17 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2223413</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41956</v>
+      </c>
       <c r="H22" s="4">
         <v>42025</v>
       </c>
@@ -1676,7 +1715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>107877</v>
       </c>
@@ -1685,11 +1724,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2222313</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="4">
+        <v>41956</v>
+      </c>
       <c r="H23" s="4">
         <v>42025</v>
       </c>
@@ -1703,7 +1748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>152975</v>
       </c>
@@ -1712,11 +1757,17 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1945405</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="4">
+        <v>41955</v>
+      </c>
       <c r="H24" s="4">
         <v>42025</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>782536</v>
       </c>
@@ -1739,11 +1790,17 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2223423</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="4">
+        <v>41955</v>
+      </c>
       <c r="H25" s="4">
         <v>42025</v>
       </c>
@@ -1757,7 +1814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>404381</v>
       </c>
@@ -1766,11 +1823,17 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2222884</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="4">
+        <v>41955</v>
+      </c>
       <c r="H26" s="4">
         <v>42025</v>
       </c>
@@ -1786,6 +1849,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>